--- a/sucesso.xlsx
+++ b/sucesso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Documents\GitHub\ProjetoIntegrador\aircraft-design-tool-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Documents\GitHub\ProjetoIntegrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10B8F6-E58C-42F6-B069-41051F935149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D8B90-E2A8-4AE0-A9D8-088A2CCB6989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1875" windowWidth="12450" windowHeight="9870" xr2:uid="{40763E0D-57AA-406A-8EBA-27EADA9E1614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{40763E0D-57AA-406A-8EBA-27EADA9E1614}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>1+rt</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>posiçao do ponto neutro da primeira asa</t>
+  </si>
+  <si>
+    <t>centro das asas</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E745EB7C-68B5-409A-A2FF-55C5E529EB64}">
   <dimension ref="D4:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,8 +900,8 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <f>7.025</f>
-        <v>7.0250000000000004</v>
+        <f>7.025-0.1</f>
+        <v>6.9250000000000007</v>
       </c>
       <c r="H10">
         <f>80+100</f>
@@ -906,7 +909,7 @@
       </c>
       <c r="I10">
         <f>G10*H10</f>
-        <v>1264.5</v>
+        <v>1246.5000000000002</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
@@ -939,14 +942,15 @@
         <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>3.1</v>
+        <f>3.1-0.3</f>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H12">
         <v>120</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>336.00000000000006</v>
       </c>
       <c r="S12" t="s">
         <v>35</v>
@@ -964,8 +968,8 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <f>7.75</f>
-        <v>7.75</v>
+        <f>7.75-0.3</f>
+        <v>7.45</v>
       </c>
       <c r="H13">
         <f>H12</f>
@@ -973,7 +977,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>930</v>
+        <v>894</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>48</v>
@@ -988,14 +992,14 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>435</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>3480</v>
+        <v>217.5</v>
       </c>
       <c r="K14" s="15">
         <f>G13-G12-F24</f>
@@ -1011,14 +1015,14 @@
         <v>8</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>8.15</v>
       </c>
       <c r="H15">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="I15">
         <f>G15*H15</f>
-        <v>280</v>
+        <v>1222.5</v>
       </c>
     </row>
     <row r="16" spans="4:20" x14ac:dyDescent="0.25">
@@ -1052,14 +1056,14 @@
       </c>
       <c r="G17">
         <f>G12</f>
-        <v>3.1</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H17">
         <v>200</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17" si="5">G17*H17</f>
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="O17" t="s">
         <v>14</v>
@@ -1074,14 +1078,21 @@
       </c>
       <c r="G18">
         <f>G13</f>
-        <v>7.75</v>
+        <v>7.45</v>
       </c>
       <c r="H18">
         <v>200</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1550</v>
+        <v>1490</v>
+      </c>
+      <c r="S18" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18">
+        <f>(G17+1)+K14/2</f>
+        <v>5.125</v>
       </c>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.25">
@@ -1128,11 +1139,11 @@
     <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H21">
         <f>SUM(H5:H20)</f>
-        <v>3640.25</v>
+        <v>3230.25</v>
       </c>
       <c r="I21">
         <f>SUM(I5:I20)</f>
-        <v>14743.561612903226</v>
+        <v>12213.561612903226</v>
       </c>
       <c r="K21" t="s">
         <v>9</v>
@@ -1141,7 +1152,7 @@
     <row r="22" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22">
         <f>I21/H21</f>
-        <v>4.0501508448329719</v>
+        <v>3.7809957783153707</v>
       </c>
       <c r="O22" s="2"/>
     </row>
@@ -1179,7 +1190,7 @@
       </c>
       <c r="P24" s="10">
         <f>G17-1</f>
-        <v>2.1</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -1197,7 +1208,7 @@
       </c>
       <c r="F25">
         <f>G17-1</f>
-        <v>2.1</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -1207,14 +1218,14 @@
       </c>
       <c r="J25" s="3">
         <f>F25+J24*F31</f>
-        <v>4.34375</v>
+        <v>4.0437500000000002</v>
       </c>
       <c r="K25" t="s">
         <v>2</v>
       </c>
       <c r="L25">
         <f>J25-K22</f>
-        <v>0.29359915516702806</v>
+        <v>0.26275422168462947</v>
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="10" t="s">
@@ -1222,7 +1233,7 @@
       </c>
       <c r="P25" s="10">
         <f>G18-1</f>
-        <v>6.75</v>
+        <v>6.45</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -1248,7 +1259,7 @@
       </c>
       <c r="P26" s="10">
         <f>P24+F24*F27</f>
-        <v>2.6</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10" t="s">
@@ -1271,7 +1282,7 @@
       </c>
       <c r="J27" s="3">
         <f>(J25-K22)/(2*F24)</f>
-        <v>7.3399788791757015E-2</v>
+        <v>6.5688555421157369E-2</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="10"/>
@@ -1352,7 +1363,7 @@
       </c>
       <c r="J30" s="3">
         <f>-J27*J29</f>
-        <v>-1.2448604179081987E-2</v>
+        <v>-1.1140778999428287E-2</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
@@ -1385,7 +1396,7 @@
       </c>
       <c r="J31">
         <f>J30*180/PI()</f>
-        <v>-0.71325248029031663</v>
+        <v>-0.63831961715522101</v>
       </c>
       <c r="K31" t="s">
         <v>51</v>
@@ -1396,7 +1407,7 @@
       </c>
       <c r="P31" s="10">
         <f>P24+F27*F24+P30</f>
-        <v>4.34375</v>
+        <v>4.0437500000000011</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
